--- a/data/trans_dic/P38B-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P38B-Estudios-trans_dic.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_dic/P38B-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P38B-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,08%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,97%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,26%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,98%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,37%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,01%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,91%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,47%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,15%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>85,89; 90,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>86,32; 90,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>86,19; 91,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>91,49; 94,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>91,58; 94,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>92,05; 95,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>89,59; 92,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>89,75; 92,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>90,53; 93,55</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,73%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,35%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,68%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,07%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,45%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,36%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,72%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,35%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,6%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>75,71; 79,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>77,42; 81,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>69,87; 78,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>82,39; 85,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>83,89; 86,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>81,01; 86,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>79,34; 82,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>81,12; 83,6</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>76,59; 81,65</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,9%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,41%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,37%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,03%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,6%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,65%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,47%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,51%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,09%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>84,46; 90,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>77,59; 84,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>79,43; 86,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>83,3; 89,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>80,37; 86,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>85,82; 90,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>85,27; 89,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>80,16; 84,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>83,92; 88,3</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,1%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,85%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,39%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,8%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,39%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,7%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,01%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,69%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,26%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>80,73; 83,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>80,48; 83,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>74,75; 81,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>86,8; 88,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>86,1; 88,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>85,07; 88,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>84,14; 85,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>83,88; 85,61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>81,18; 84,64</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P38B-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P38B-Estudios-trans_dic.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>89,26%</t>
+          <t>89,59%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>94,01%</t>
+          <t>94,31%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>92,15%</t>
+          <t>92,4%</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>86,19; 91,77</t>
+          <t>86,59; 92,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>92,05; 95,54</t>
+          <t>92,59; 95,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>90,53; 93,55</t>
+          <t>90,8; 93,77</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>75,68%</t>
+          <t>69,74%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -767,7 +767,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>83,36%</t>
+          <t>83,24%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>79,6%</t>
+          <t>76,41%</t>
         </is>
       </c>
     </row>
@@ -805,7 +805,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>69,87; 78,51</t>
+          <t>51,49; 78,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>81,01; 86,0</t>
+          <t>74,85; 87,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>76,59; 81,65</t>
+          <t>61,94; 81,97</t>
         </is>
       </c>
     </row>
@@ -862,7 +862,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>83,37%</t>
+          <t>83,25%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>88,65%</t>
+          <t>89,08%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -892,7 +892,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>86,09%</t>
+          <t>86,19%</t>
         </is>
       </c>
     </row>
@@ -915,7 +915,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>79,43; 86,38</t>
+          <t>78,6; 86,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -930,7 +930,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>85,82; 90,82</t>
+          <t>86,39; 91,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>83,92; 88,3</t>
+          <t>83,58; 88,44</t>
         </is>
       </c>
     </row>
@@ -972,7 +972,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>79,39%</t>
+          <t>75,22%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>86,7%</t>
+          <t>86,58%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>83,26%</t>
+          <t>81,06%</t>
         </is>
       </c>
     </row>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>74,75; 81,33</t>
+          <t>55,9; 81,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>85,07; 88,21</t>
+          <t>80,05; 88,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>81,18; 84,64</t>
+          <t>69,59; 84,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P38B-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P38B-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>85,89; 90,26</t>
+          <t>85,7; 90,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>86,32; 90,97</t>
+          <t>86,51; 91,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>86,59; 92,06</t>
+          <t>86,66; 92,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>91,49; 94,29</t>
+          <t>91,44; 94,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>91,58; 94,66</t>
+          <t>91,56; 94,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>92,59; 95,68</t>
+          <t>92,42; 95,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>89,59; 92,1</t>
+          <t>89,58; 92,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>89,75; 92,71</t>
+          <t>90,01; 92,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>90,8; 93,77</t>
+          <t>90,85; 93,75</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>75,71; 79,51</t>
+          <t>75,71; 79,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>77,42; 81,25</t>
+          <t>77,47; 81,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>51,49; 78,84</t>
+          <t>48,95; 78,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>82,39; 85,91</t>
+          <t>82,15; 85,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>83,89; 86,97</t>
+          <t>83,83; 86,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>74,85; 87,28</t>
+          <t>74,14; 87,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>79,34; 82,0</t>
+          <t>79,25; 81,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>81,12; 83,6</t>
+          <t>81,22; 83,5</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>61,94; 81,97</t>
+          <t>64,14; 82,25</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>84,46; 90,94</t>
+          <t>84,39; 90,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>77,59; 84,64</t>
+          <t>78,03; 84,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>78,6; 86,59</t>
+          <t>78,36; 86,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>83,3; 89,99</t>
+          <t>83,67; 90,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>80,37; 86,53</t>
+          <t>80,33; 87,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>86,39; 91,22</t>
+          <t>86,32; 91,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>85,27; 89,67</t>
+          <t>85,11; 89,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>80,16; 84,83</t>
+          <t>80,12; 84,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>83,58; 88,44</t>
+          <t>83,23; 88,24</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>80,73; 83,56</t>
+          <t>80,74; 83,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>80,48; 83,16</t>
+          <t>80,48; 83,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>55,9; 81,47</t>
+          <t>58,57; 81,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>86,8; 88,99</t>
+          <t>86,58; 88,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>86,1; 88,43</t>
+          <t>86,33; 88,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>80,05; 88,92</t>
+          <t>80,68; 89,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>84,14; 85,84</t>
+          <t>84,12; 85,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>83,88; 85,61</t>
+          <t>83,76; 85,61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>69,59; 84,66</t>
+          <t>70,44; 84,63</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que le han medido los niveles de colesterol por prescripción médica</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>796</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>678</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>624</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1154</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>825</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1358</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1503</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>851849</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>668361</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>459736</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1234873</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>924912</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>710998</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2086722</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1593273</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1170734</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>828831; 871292</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>649894; 685088</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>444704; 472867</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1214385; 1254007</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>906988; 939929</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>696686; 720705</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2056211; 2113830</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1567818; 1614476</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1151080; 1187890</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1420</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1536</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1663</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1357</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1615</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2562</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2777</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>3151</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>4225</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1517343</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1628539</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1597291</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1470115</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1694146</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1861259</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2987458</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3322684</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3458550</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1478080; 1549233</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1589811; 1666244</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1121029; 1804097</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1436495; 1497791</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1661919; 1724220</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1657874; 1956231</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2932913; 3032011</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>3277238; 3369154</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2903194; 3723012</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>592</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>437</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>736</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1514</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>419606</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>442862</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>538308</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>398268</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>458207</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>588319</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>817873</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>901069</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1126627</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>402879; 433090</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>424441; 461213</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>506695; 562048</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>382870; 412558</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>440309; 476953</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>570128; 603592</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>795723; 836507</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>875010; 924161</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1087888; 1153324</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2594</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2618</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2879</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2869</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2877</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>4842</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>5463</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>5495</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>7721</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2788798</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2739762</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2595336</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>3103256</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3077264</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>3160576</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>5892054</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>5817026</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>5755912</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2742383; 2829771</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2694038; 2787244</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2020874; 2817289</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3060234; 3141461</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3039909; 3114565</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2945204; 3249287</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>5830698; 5951423</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>5753133; 5880184</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>5001259; 6009073</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>